--- a/data/trans_dic/P6-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P6-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha experimentado cambio de convivientes en sus viviendas</t>
+          <t>Población que ha experimentado cambio de convivientes en sus viviendas (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -661,37 +662,37 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,17 +702,17 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>9,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,62</t>
+          <t>4,9; 8,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,01; 13,74</t>
+          <t>5,8; 11,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 14,53</t>
+          <t>5,67; 10,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 12,63</t>
+          <t>6,19; 10,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 11,1</t>
+          <t>7,38; 11,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,92; 14,69</t>
+          <t>7,1; 11,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,2; 16,3</t>
+          <t>6,44; 10,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,54; 14,72</t>
+          <t>7,6; 12,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,58; 9,45</t>
+          <t>6,59; 9,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,7; 12,92</t>
+          <t>6,89; 10,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,07; 14,46</t>
+          <t>6,39; 9,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,11; 12,91</t>
+          <t>7,59; 10,68</t>
         </is>
       </c>
     </row>
@@ -801,17 +802,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -821,17 +822,17 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -841,17 +842,17 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>9,51%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,52</t>
+          <t>3,73; 7,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,04; 17,52</t>
+          <t>3,64; 8,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 12,98</t>
+          <t>3,88; 8,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 12,71</t>
+          <t>5,12; 9,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,7; 9,85</t>
+          <t>5,63; 9,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,19; 13,65</t>
+          <t>6,0; 11,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,35; 20,16</t>
+          <t>6,52; 11,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,7; 19,17</t>
+          <t>9,42; 15,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 8,13</t>
+          <t>5,43; 8,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 13,42</t>
+          <t>5,33; 8,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,55; 15,0</t>
+          <t>5,75; 9,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 14,98</t>
+          <t>7,79; 12,13</t>
         </is>
       </c>
     </row>
@@ -941,37 +942,37 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -981,17 +982,17 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>10,71%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,47; 14,6</t>
+          <t>4,59; 14,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 20,69</t>
+          <t>4,45; 15,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,59; 27,46</t>
+          <t>5,5; 16,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 21,53</t>
+          <t>5,99; 17,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 9,98</t>
+          <t>3,33; 10,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 12,58</t>
+          <t>3,17; 11,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,96; 19,77</t>
+          <t>4,4; 12,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 20,6</t>
+          <t>6,48; 16,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 10,98</t>
+          <t>4,69; 11,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 13,91</t>
+          <t>4,52; 11,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,83; 21,1</t>
+          <t>6,02; 12,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,35; 18,76</t>
+          <t>7,54; 15,24</t>
         </is>
       </c>
     </row>
@@ -1081,17 +1082,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,17 +1102,17 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,17 +1122,17 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>9,4%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 7,68</t>
+          <t>5,24; 7,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,88</t>
+          <t>5,61; 8,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,03; 13,68</t>
+          <t>5,78; 8,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,2</t>
+          <t>6,69; 9,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 9,49</t>
+          <t>6,99; 9,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,47</t>
+          <t>6,81; 9,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,49; 16,07</t>
+          <t>6,86; 9,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,29; 15,51</t>
+          <t>9,09; 12,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,47; 8,33</t>
+          <t>6,49; 8,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,8</t>
+          <t>6,61; 8,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,86; 14,21</t>
+          <t>6,76; 8,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,23; 13,2</t>
+          <t>8,33; 10,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1216,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha experimentado cambio de convivientes en sus viviendas (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>107445</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>127847</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>125702</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>136819</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>163780</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>162061</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>148896</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>174899</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>271225</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>289908</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>274598</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>311718</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>80358; 145101</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>95856; 188730</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>93401; 172628</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>101805; 178902</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>132191; 205375</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>128418; 204813</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>117813; 191780</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>138244; 218698</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>226154; 323698</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>238526; 356991</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>222008; 325581</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>262907; 370047</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>76636</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>75258</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>81539</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>97782</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>107468</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>112607</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>118528</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>164951</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>184104</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>187865</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>200067</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>262733</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>51785; 107039</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>50017; 111017</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>53506; 114405</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>70729; 137115</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>79383; 140393</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>83449; 153787</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>89664; 162621</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>130232; 215574</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>151708; 229694</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>147383; 239556</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>158455; 248750</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>215153; 335235</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36417</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36471</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>41201</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>46554</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25027</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24962</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31688</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>42830</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>61443</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>61433</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>72889</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>89384</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19426; 60833</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18796; 63827</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23265; 71320</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25320; 74475</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13703; 42695</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13057; 48646</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18023; 51990</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26705; 65914</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>39184; 93044</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>37770; 92094</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>50120; 107146</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>62971; 127193</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>220498</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>239575</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>248441</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>281155</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>296275</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>299630</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>299113</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>382679</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>516772</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>539205</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>547554</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>663834</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>180886; 274925</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>193589; 308031</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>199549; 305433</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>230930; 340510</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>252351; 352193</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>246138; 360749</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>247821; 354064</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>328290; 451460</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>458381; 582503</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>466803; 631358</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>477340; 628432</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>588125; 754528</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>